--- a/src/test/resources/VotoEntityTestData.xlsx
+++ b/src/test/resources/VotoEntityTestData.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\be0136\git2\JEE_ECP\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,50 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>INTERSECCION</t>
   </si>
   <si>
-    <t>¿En qué grado sigue usted el fútbol?</t>
-  </si>
-  <si>
-    <t>¿Le gusta el automovilismo?</t>
-  </si>
-  <si>
-    <t>¿Considera que las chapas debe ser deporte olímpico?</t>
-  </si>
-  <si>
-    <t>¿Le gusta la natación?</t>
-  </si>
-  <si>
-    <t>¿Le gusta el baloncesto?</t>
-  </si>
-  <si>
-    <t>¿Práctica golf?</t>
-  </si>
-  <si>
-    <t>¿Qúe nota pone a nuestros políticas?</t>
-  </si>
-  <si>
-    <t>¿Está de acuerdo con los partidos que nos representan?</t>
-  </si>
-  <si>
-    <t>¿Cómo valora la situación laboral en España?</t>
-  </si>
-  <si>
-    <t>¿Crees en los políticos?</t>
-  </si>
-  <si>
     <t>TUPLA_SALIDA</t>
   </si>
   <si>
-    <t>TEMA_ENTRADA</t>
-  </si>
-  <si>
-    <t>PREGUNTA_ENTRADA</t>
-  </si>
-  <si>
     <t>IP_ENTRADA</t>
   </si>
   <si>
@@ -124,36 +93,6 @@
   </si>
   <si>
     <t>Master</t>
-  </si>
-  <si>
-    <t>Tema1</t>
-  </si>
-  <si>
-    <t>Tema2</t>
-  </si>
-  <si>
-    <t>Tema3</t>
-  </si>
-  <si>
-    <t>Tema4</t>
-  </si>
-  <si>
-    <t>Tema5</t>
-  </si>
-  <si>
-    <t>Tema6</t>
-  </si>
-  <si>
-    <t>Tema7</t>
-  </si>
-  <si>
-    <t>Tema8</t>
-  </si>
-  <si>
-    <t>Tema9</t>
-  </si>
-  <si>
-    <t>Tema10</t>
   </si>
 </sst>
 </file>
@@ -515,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,7 +465,7 @@
   <dimension ref="B1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,22 +510,16 @@
     </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -604,23 +537,17 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>CONCATENATE("{",B3,",",C3,",",D3,",",E3,",",F3,"}")</f>
-        <v>{192.168.1.103,1,Ingeniería técnica,¿En qué grado sigue usted el fútbol?,Tema1}</v>
+        <v>{192.168.1.103,1,Ingeniería técnica,,}</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -635,23 +562,17 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G12" si="0">CONCATENATE("{",B4,",",C4,",",D4,",",E4,",",F4,"}")</f>
-        <v>{192.168.1.104,2,Grado,¿Le gusta el automovilismo?,Tema2}</v>
+        <v>{192.168.1.104,2,Grado,,}</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -666,23 +587,17 @@
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.105,3,Formacion profesional nivel I,¿Considera que las chapas debe ser deporte olímpico?,Tema3}</v>
+        <v>{192.168.1.105,3,Formacion profesional nivel I,,}</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -697,23 +612,17 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.106,4,Formacion profesional nivel II,¿Le gusta la natación?,Tema4}</v>
+        <v>{192.168.1.106,4,Formacion profesional nivel II,,}</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -728,23 +637,17 @@
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.107,5,ESO,¿Le gusta el baloncesto?,Tema5}</v>
+        <v>{192.168.1.107,5,ESO,,}</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -759,23 +662,17 @@
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.108,6,Bachillerato,¿Práctica golf?,Tema6}</v>
+        <v>{192.168.1.108,6,Bachillerato,,}</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -790,92 +687,68 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.109,7,Doctorado,¿Qúe nota pone a nuestros políticas?,Tema7}</v>
+        <v>{192.168.1.109,7,Doctorado,,}</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.110,8,Master,¿Está de acuerdo con los partidos que nos representan?,Tema8}</v>
+        <v>{192.168.1.110,8,Master,,}</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.111,9,Master,¿Crees en los políticos?,Tema9}</v>
+        <v>{192.168.1.111,9,Master,,}</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>{192.168.1.112,10,Master,¿Cómo valora la situación laboral en España?,Tema10}</v>
+        <v>{192.168.1.112,10,Master,,}</v>
       </c>
     </row>
   </sheetData>
